--- a/equarz.com/src/main/java/com/etestdata/sigup.xlsx
+++ b/equarz.com/src/main/java/com/etestdata/sigup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="3045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:J8"/>
 </workbook>
 </file>
 

--- a/equarz.com/src/main/java/com/etestdata/sigup.xlsx
+++ b/equarz.com/src/main/java/com/etestdata/sigup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15300" windowHeight="3045"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15030" windowHeight="4095"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,13 +40,13 @@
     <t xml:space="preserve">kummari </t>
   </si>
   <si>
-    <t>phanee</t>
-  </si>
-  <si>
-    <t>indraphanee82@gmail.com</t>
-  </si>
-  <si>
     <t>phanee@9</t>
+  </si>
+  <si>
+    <t>phaneendra9.marolix@gmail.com</t>
+  </si>
+  <si>
+    <t>phaneendra</t>
   </si>
 </sst>
 </file>
@@ -394,14 +394,14 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="6" width="18.42578125" customWidth="1"/>
   </cols>
@@ -431,19 +431,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>9550230737</v>
+        <v>9550230736</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/equarz.com/src/main/java/com/etestdata/sigup.xlsx
+++ b/equarz.com/src/main/java/com/etestdata/sigup.xlsx
@@ -4,20 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15030" windowHeight="4095"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="signup" sheetId="1" r:id="rId1"/>
+    <sheet name="dataaddress" sheetId="2" r:id="rId2"/>
+    <sheet name="logindata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:J8"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t xml:space="preserve">first name </t>
   </si>
@@ -40,13 +39,47 @@
     <t xml:space="preserve">kummari </t>
   </si>
   <si>
+    <t>phanee</t>
+  </si>
+  <si>
+    <t>indraphanee82@gmail.com</t>
+  </si>
+  <si>
     <t>phanee@9</t>
   </si>
   <si>
-    <t>phaneendra9.marolix@gmail.com</t>
+    <t xml:space="preserve">contact name </t>
   </si>
   <si>
     <t>phaneendra</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city </t>
+  </si>
+  <si>
+    <t>Nandyal</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>h.no:25-684-555-3
+nandyal ,Andhra pradesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username </t>
+  </si>
+  <si>
+    <t>jakkamsairam3@gmail.com</t>
+  </si>
+  <si>
+    <t>Namo@12345</t>
   </si>
 </sst>
 </file>
@@ -93,9 +126,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -393,15 +429,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="6" width="18.42578125" customWidth="1"/>
   </cols>
@@ -431,19 +467,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2">
-        <v>9550230736</v>
+        <v>9550230737</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -458,24 +494,93 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="45">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>9550230737</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>518501</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="28.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>